--- a/material/finetuning.xlsx
+++ b/material/finetuning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franz\Downloads\PubMed Suche\prototyp-einer-vektor-basierten-pubmed-suche\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD947DF-B783-48E8-A645-91EF16C782A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02796171-B939-4A55-A7C7-2A9E7B88FEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{64D4832F-DB74-48D2-A253-8CBA73648381}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{64D4832F-DB74-48D2-A253-8CBA73648381}"/>
   </bookViews>
   <sheets>
     <sheet name="Sentence-BERT" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="46">
   <si>
     <t>0.6</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>Comparison to the Results before Fine-Tuning:</t>
+  </si>
+  <si>
+    <t>Comparison to the Results on the Test Set before Fine-Tuning:</t>
+  </si>
+  <si>
+    <t>0.1713424293853861</t>
   </si>
 </sst>
 </file>
@@ -218,11 +224,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -550,8 +557,8 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,7 +575,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H1" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="3"/>
     </row>
@@ -830,10 +837,10 @@
   <sheetPr>
     <tabColor rgb="FF009999"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -881,78 +888,107 @@
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{CEFFE13E-FC6D-4F19-8C5E-E476AB637C21}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{E99B8285-E561-4712-842E-615B64990513}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{09051C7D-231B-4306-99A1-2F0986D4BCE2}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{CEFFE13E-FC6D-4F19-8C5E-E476AB637C21}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{E99B8285-E561-4712-842E-615B64990513}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{09051C7D-231B-4306-99A1-2F0986D4BCE2}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{9AFAB875-BB5F-47C0-ADB8-538D83D7093C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -963,7 +999,7 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/material/finetuning.xlsx
+++ b/material/finetuning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franz\Downloads\bert-biomedical-ir\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02796171-B939-4A55-A7C7-2A9E7B88FEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD30F090-67B9-4F1A-9728-67DB2CD86D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{64D4832F-DB74-48D2-A253-8CBA73648381}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{64D4832F-DB74-48D2-A253-8CBA73648381}"/>
   </bookViews>
   <sheets>
     <sheet name="Sentence-BERT" sheetId="1" r:id="rId1"/>
@@ -224,12 +224,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -555,10 +556,10 @@
   <sheetPr>
     <tabColor rgb="FFFF33CC"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,7 +623,7 @@
       <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
@@ -636,19 +637,19 @@
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
@@ -662,19 +663,19 @@
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H5" t="s">
@@ -688,21 +689,22 @@
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="G6" s="4"/>
       <c r="H6" t="s">
         <v>22</v>
       </c>
@@ -714,21 +716,22 @@
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="G7" s="4"/>
       <c r="H7" t="s">
         <v>32</v>
       </c>
@@ -740,22 +743,22 @@
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="5"/>
       <c r="H8" t="s">
         <v>30</v>
       </c>
@@ -767,22 +770,22 @@
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="5"/>
       <c r="H9" t="s">
         <v>22</v>
       </c>
@@ -794,28 +797,44 @@
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="5"/>
       <c r="H10" t="s">
         <v>22</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -839,8 +858,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -888,10 +907,10 @@
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -901,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -912,10 +931,10 @@
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -925,10 +944,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -936,10 +955,10 @@
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -949,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -960,23 +979,22 @@
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1000,7 +1018,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1077,13 +1095,13 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="5"/>
       <c r="G4" t="s">
         <v>1</v>
       </c>
@@ -1101,13 +1119,13 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="5"/>
       <c r="G5" t="s">
         <v>8</v>
       </c>
@@ -1128,7 +1146,7 @@
       <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="1"/>
